--- a/2018-05-21 功能需求说明_01(1).xlsx
+++ b/2018-05-21 功能需求说明_01(1).xlsx
@@ -552,7 +552,7 @@
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="29">
+  <fonts count="30">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -608,6 +608,28 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="9"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -615,8 +637,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -630,23 +674,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -654,7 +692,14 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -668,29 +713,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
@@ -700,7 +722,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -715,40 +737,25 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -756,7 +763,6 @@
       <color rgb="FF00B050"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
@@ -792,187 +798,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1109,17 +1115,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1139,26 +1145,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1178,6 +1169,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -1192,8 +1198,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1205,10 +1211,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1217,137 +1223,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="29" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1552,6 +1558,9 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1569,6 +1578,15 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1635,6 +1653,11 @@
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="00FFFF00"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1932,8 +1955,8 @@
   <sheetPr/>
   <dimension ref="A1:CM88"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="K62" sqref="K62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.25"/>
@@ -2044,7 +2067,7 @@
       <c r="G6" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="H6" s="77" t="s">
+      <c r="H6" s="81" t="s">
         <v>1</v>
       </c>
       <c r="I6" s="54" t="s">
@@ -2072,7 +2095,7 @@
       <c r="G8" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="H8" s="77" t="s">
+      <c r="H8" s="81" t="s">
         <v>1</v>
       </c>
       <c r="I8" s="14" t="s">
@@ -2682,7 +2705,7 @@
       <c r="F46" s="5"/>
       <c r="G46" s="37"/>
       <c r="H46" s="36"/>
-      <c r="I46" s="67" t="s">
+      <c r="I46" s="68" t="s">
         <v>66</v>
       </c>
     </row>
@@ -2695,7 +2718,7 @@
       <c r="F47" s="5"/>
       <c r="G47" s="37"/>
       <c r="H47" s="36"/>
-      <c r="I47" s="67" t="s">
+      <c r="I47" s="68" t="s">
         <v>67</v>
       </c>
     </row>
@@ -2708,7 +2731,7 @@
       <c r="F48" s="5"/>
       <c r="G48" s="37"/>
       <c r="H48" s="36"/>
-      <c r="I48" s="67" t="s">
+      <c r="I48" s="68" t="s">
         <v>68</v>
       </c>
     </row>
@@ -2721,7 +2744,7 @@
       <c r="F49" s="5"/>
       <c r="G49" s="38"/>
       <c r="H49" s="36"/>
-      <c r="I49" s="68" t="s">
+      <c r="I49" s="69" t="s">
         <v>69</v>
       </c>
     </row>
@@ -2734,7 +2757,7 @@
       <c r="F50" s="21"/>
       <c r="G50" s="39"/>
       <c r="H50" s="40"/>
-      <c r="I50" s="69"/>
+      <c r="I50" s="70"/>
     </row>
     <row r="51" ht="18" customHeight="1" spans="1:9">
       <c r="A51" s="10"/>
@@ -2749,13 +2772,13 @@
       <c r="F51" s="21"/>
       <c r="G51" s="39"/>
       <c r="H51" s="40"/>
-      <c r="I51" s="69"/>
+      <c r="I51" s="70"/>
     </row>
     <row r="52" ht="18" customHeight="1" spans="1:9">
       <c r="A52" s="10"/>
       <c r="G52" s="42"/>
       <c r="H52" s="43"/>
-      <c r="I52" s="70"/>
+      <c r="I52" s="71"/>
     </row>
     <row r="53" ht="18" customHeight="1" spans="1:9">
       <c r="A53" s="10"/>
@@ -2780,7 +2803,7 @@
       <c r="H53" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="I53" s="71" t="s">
+      <c r="I53" s="72" t="s">
         <v>74</v>
       </c>
     </row>
@@ -2825,7 +2848,7 @@
       <c r="F56" s="5"/>
       <c r="G56" s="5"/>
       <c r="H56" s="5"/>
-      <c r="I56" s="46" t="s">
+      <c r="I56" s="68" t="s">
         <v>12</v>
       </c>
     </row>
@@ -2838,7 +2861,7 @@
       <c r="F57" s="5"/>
       <c r="G57" s="5"/>
       <c r="H57" s="5"/>
-      <c r="I57" s="46" t="s">
+      <c r="I57" s="68" t="s">
         <v>78</v>
       </c>
     </row>
@@ -2851,7 +2874,7 @@
       <c r="F58" s="5"/>
       <c r="G58" s="5"/>
       <c r="H58" s="5"/>
-      <c r="I58" s="72"/>
+      <c r="I58" s="73"/>
     </row>
     <row r="59" ht="18" customHeight="1" spans="1:14">
       <c r="A59" s="10"/>
@@ -2862,7 +2885,7 @@
       <c r="F59" s="5"/>
       <c r="G59" s="13"/>
       <c r="H59" s="5"/>
-      <c r="I59" s="73"/>
+      <c r="I59" s="74"/>
       <c r="L59" s="2"/>
       <c r="N59" s="2"/>
     </row>
@@ -2906,7 +2929,7 @@
       <c r="F62" s="5"/>
       <c r="G62" s="5"/>
       <c r="H62" s="3"/>
-      <c r="I62" s="61" t="s">
+      <c r="I62" s="75" t="s">
         <v>81</v>
       </c>
       <c r="J62" s="3"/>
@@ -3002,7 +3025,7 @@
       </c>
       <c r="F63" s="5"/>
       <c r="G63" s="5"/>
-      <c r="I63" s="61" t="s">
+      <c r="I63" s="75" t="s">
         <v>83</v>
       </c>
       <c r="L63" s="2"/>
@@ -3044,13 +3067,13 @@
       <c r="F66" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="G66" s="71" t="s">
+      <c r="G66" s="72" t="s">
         <v>86</v>
       </c>
       <c r="H66" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="I66" s="71" t="s">
+      <c r="I66" s="72" t="s">
         <v>87</v>
       </c>
     </row>
@@ -3074,13 +3097,13 @@
       <c r="F68" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="G68" s="71" t="s">
+      <c r="G68" s="76" t="s">
         <v>90</v>
       </c>
-      <c r="H68" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="I68" s="71" t="s">
+      <c r="H68" s="77" t="s">
+        <v>1</v>
+      </c>
+      <c r="I68" s="76" t="s">
         <v>91</v>
       </c>
     </row>
@@ -3092,7 +3115,7 @@
       <c r="B70" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C70" s="74" t="s">
+      <c r="C70" s="78" t="s">
         <v>92</v>
       </c>
       <c r="D70" s="5" t="s">
@@ -3111,35 +3134,35 @@
     <row r="71" ht="18" customHeight="1" spans="1:7">
       <c r="A71" s="10"/>
       <c r="B71" s="5"/>
-      <c r="C71" s="74"/>
+      <c r="C71" s="78"/>
       <c r="D71" s="5"/>
       <c r="E71" s="46" t="s">
         <v>95</v>
       </c>
       <c r="F71" s="5"/>
-      <c r="G71" s="75"/>
+      <c r="G71" s="79"/>
     </row>
     <row r="72" ht="18" customHeight="1" spans="1:7">
       <c r="A72" s="10"/>
       <c r="B72" s="5"/>
-      <c r="C72" s="74"/>
+      <c r="C72" s="78"/>
       <c r="D72" s="5"/>
       <c r="E72" s="46" t="s">
         <v>96</v>
       </c>
       <c r="F72" s="5"/>
-      <c r="G72" s="75"/>
+      <c r="G72" s="79"/>
     </row>
     <row r="73" ht="18" customHeight="1" spans="1:7">
       <c r="A73" s="29"/>
       <c r="B73" s="5"/>
-      <c r="C73" s="74"/>
+      <c r="C73" s="78"/>
       <c r="D73" s="5"/>
       <c r="E73" s="47" t="s">
         <v>97</v>
       </c>
       <c r="F73" s="5"/>
-      <c r="G73" s="76"/>
+      <c r="G73" s="80"/>
     </row>
     <row r="74" ht="44.25" customHeight="1"/>
     <row r="75" ht="23.25" customHeight="1"/>

--- a/2018-05-21 功能需求说明_01(1).xlsx
+++ b/2018-05-21 功能需求说明_01(1).xlsx
@@ -1353,7 +1353,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1556,6 +1556,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
@@ -1955,8 +1958,8 @@
   <sheetPr/>
   <dimension ref="A1:CM88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="K62" sqref="K62"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="K56" sqref="K56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.25"/>
@@ -2067,7 +2070,7 @@
       <c r="G6" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="H6" s="81" t="s">
+      <c r="H6" s="82" t="s">
         <v>1</v>
       </c>
       <c r="I6" s="54" t="s">
@@ -2095,7 +2098,7 @@
       <c r="G8" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="H8" s="81" t="s">
+      <c r="H8" s="82" t="s">
         <v>1</v>
       </c>
       <c r="I8" s="14" t="s">
@@ -2718,7 +2721,7 @@
       <c r="F47" s="5"/>
       <c r="G47" s="37"/>
       <c r="H47" s="36"/>
-      <c r="I47" s="68" t="s">
+      <c r="I47" s="69" t="s">
         <v>67</v>
       </c>
     </row>
@@ -2731,7 +2734,7 @@
       <c r="F48" s="5"/>
       <c r="G48" s="37"/>
       <c r="H48" s="36"/>
-      <c r="I48" s="68" t="s">
+      <c r="I48" s="69" t="s">
         <v>68</v>
       </c>
     </row>
@@ -2744,7 +2747,7 @@
       <c r="F49" s="5"/>
       <c r="G49" s="38"/>
       <c r="H49" s="36"/>
-      <c r="I49" s="69" t="s">
+      <c r="I49" s="70" t="s">
         <v>69</v>
       </c>
     </row>
@@ -2757,7 +2760,7 @@
       <c r="F50" s="21"/>
       <c r="G50" s="39"/>
       <c r="H50" s="40"/>
-      <c r="I50" s="70"/>
+      <c r="I50" s="71"/>
     </row>
     <row r="51" ht="18" customHeight="1" spans="1:9">
       <c r="A51" s="10"/>
@@ -2772,13 +2775,13 @@
       <c r="F51" s="21"/>
       <c r="G51" s="39"/>
       <c r="H51" s="40"/>
-      <c r="I51" s="70"/>
+      <c r="I51" s="71"/>
     </row>
     <row r="52" ht="18" customHeight="1" spans="1:9">
       <c r="A52" s="10"/>
       <c r="G52" s="42"/>
       <c r="H52" s="43"/>
-      <c r="I52" s="71"/>
+      <c r="I52" s="72"/>
     </row>
     <row r="53" ht="18" customHeight="1" spans="1:9">
       <c r="A53" s="10"/>
@@ -2803,7 +2806,7 @@
       <c r="H53" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="I53" s="72" t="s">
+      <c r="I53" s="73" t="s">
         <v>74</v>
       </c>
     </row>
@@ -2848,7 +2851,7 @@
       <c r="F56" s="5"/>
       <c r="G56" s="5"/>
       <c r="H56" s="5"/>
-      <c r="I56" s="68" t="s">
+      <c r="I56" s="69" t="s">
         <v>12</v>
       </c>
     </row>
@@ -2861,7 +2864,7 @@
       <c r="F57" s="5"/>
       <c r="G57" s="5"/>
       <c r="H57" s="5"/>
-      <c r="I57" s="68" t="s">
+      <c r="I57" s="69" t="s">
         <v>78</v>
       </c>
     </row>
@@ -2874,7 +2877,7 @@
       <c r="F58" s="5"/>
       <c r="G58" s="5"/>
       <c r="H58" s="5"/>
-      <c r="I58" s="73"/>
+      <c r="I58" s="74"/>
     </row>
     <row r="59" ht="18" customHeight="1" spans="1:14">
       <c r="A59" s="10"/>
@@ -2885,7 +2888,7 @@
       <c r="F59" s="5"/>
       <c r="G59" s="13"/>
       <c r="H59" s="5"/>
-      <c r="I59" s="74"/>
+      <c r="I59" s="75"/>
       <c r="L59" s="2"/>
       <c r="N59" s="2"/>
     </row>
@@ -2929,7 +2932,7 @@
       <c r="F62" s="5"/>
       <c r="G62" s="5"/>
       <c r="H62" s="3"/>
-      <c r="I62" s="75" t="s">
+      <c r="I62" s="76" t="s">
         <v>81</v>
       </c>
       <c r="J62" s="3"/>
@@ -3025,7 +3028,7 @@
       </c>
       <c r="F63" s="5"/>
       <c r="G63" s="5"/>
-      <c r="I63" s="75" t="s">
+      <c r="I63" s="76" t="s">
         <v>83</v>
       </c>
       <c r="L63" s="2"/>
@@ -3067,13 +3070,13 @@
       <c r="F66" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="G66" s="72" t="s">
+      <c r="G66" s="73" t="s">
         <v>86</v>
       </c>
       <c r="H66" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="I66" s="72" t="s">
+      <c r="I66" s="73" t="s">
         <v>87</v>
       </c>
     </row>
@@ -3097,13 +3100,13 @@
       <c r="F68" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="G68" s="76" t="s">
+      <c r="G68" s="77" t="s">
         <v>90</v>
       </c>
-      <c r="H68" s="77" t="s">
-        <v>1</v>
-      </c>
-      <c r="I68" s="76" t="s">
+      <c r="H68" s="78" t="s">
+        <v>1</v>
+      </c>
+      <c r="I68" s="77" t="s">
         <v>91</v>
       </c>
     </row>
@@ -3115,7 +3118,7 @@
       <c r="B70" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C70" s="78" t="s">
+      <c r="C70" s="79" t="s">
         <v>92</v>
       </c>
       <c r="D70" s="5" t="s">
@@ -3134,35 +3137,35 @@
     <row r="71" ht="18" customHeight="1" spans="1:7">
       <c r="A71" s="10"/>
       <c r="B71" s="5"/>
-      <c r="C71" s="78"/>
+      <c r="C71" s="79"/>
       <c r="D71" s="5"/>
       <c r="E71" s="46" t="s">
         <v>95</v>
       </c>
       <c r="F71" s="5"/>
-      <c r="G71" s="79"/>
+      <c r="G71" s="80"/>
     </row>
     <row r="72" ht="18" customHeight="1" spans="1:7">
       <c r="A72" s="10"/>
       <c r="B72" s="5"/>
-      <c r="C72" s="78"/>
+      <c r="C72" s="79"/>
       <c r="D72" s="5"/>
       <c r="E72" s="46" t="s">
         <v>96</v>
       </c>
       <c r="F72" s="5"/>
-      <c r="G72" s="79"/>
+      <c r="G72" s="80"/>
     </row>
     <row r="73" ht="18" customHeight="1" spans="1:7">
       <c r="A73" s="29"/>
       <c r="B73" s="5"/>
-      <c r="C73" s="78"/>
+      <c r="C73" s="79"/>
       <c r="D73" s="5"/>
       <c r="E73" s="47" t="s">
         <v>97</v>
       </c>
       <c r="F73" s="5"/>
-      <c r="G73" s="80"/>
+      <c r="G73" s="81"/>
     </row>
     <row r="74" ht="44.25" customHeight="1"/>
     <row r="75" ht="23.25" customHeight="1"/>
